--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/ALABAMA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/ALABAMA_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1070"/>
+  <dimension ref="A1:D1064"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C23">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C26">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C33">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C37">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C57">
@@ -1252,7 +1252,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C67">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C68">
@@ -1517,7 +1517,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C87">
@@ -1595,7 +1595,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C93">
@@ -1719,7 +1719,7 @@
         <v>67</v>
       </c>
       <c r="D102">
-        <v>0.009937703945416791</v>
+        <v>0.009937703945416793</v>
       </c>
     </row>
     <row r="103">
@@ -2021,7 +2021,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C125">
@@ -2047,7 +2047,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C131">
@@ -2304,7 +2304,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C146">
@@ -2447,7 +2447,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C157">
@@ -2460,7 +2460,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C158">
@@ -2525,7 +2525,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C163">
@@ -2538,7 +2538,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C164">
@@ -2551,7 +2551,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C165">
@@ -2642,12 +2642,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C172">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C174">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C175">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C187">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C191">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C195">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C204">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C212">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C213">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C221">
@@ -3362,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C227">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C231">
@@ -3427,7 +3427,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C232">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C233">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C234">
@@ -3551,7 +3551,7 @@
         <v>672</v>
       </c>
       <c r="D241">
-        <v>0.09967368733313557</v>
+        <v>0.09967368733313556</v>
       </c>
     </row>
     <row r="242">
@@ -3588,7 +3588,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C244">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C245">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C246">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C252">
@@ -3744,7 +3744,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C256">
@@ -3861,7 +3861,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C265">
@@ -3887,7 +3887,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C267">
@@ -3913,7 +3913,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C269">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C270">
@@ -3952,7 +3952,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C272">
@@ -3991,7 +3991,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C275">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C280">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C283">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C284">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C287">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C288">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C289">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C293">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C294">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C298">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C299">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C302">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C303">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C308">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C309">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C311">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C312">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C314">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C327">
@@ -4698,7 +4698,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C329">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C331">
@@ -4737,7 +4737,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C332">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C335">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C336">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C350">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C356">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C360">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C363">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C368">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C370">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C371">
@@ -5353,7 +5353,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C379">
@@ -5379,7 +5379,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C381">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C382">
@@ -5457,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C387">
@@ -5470,7 +5470,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C388">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C389">
@@ -5496,7 +5496,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C390">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C394">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C395">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C398">
@@ -5683,7 +5683,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C404">
@@ -5722,7 +5722,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C407">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C410">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C413">
@@ -5826,7 +5826,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C415">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C421">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C424">
@@ -5956,7 +5956,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C425">
@@ -5969,7 +5969,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C426">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C429">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C430">
@@ -6034,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C431">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C433">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C438">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C439">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C440">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C441">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C443">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C444">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C447">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C448">
@@ -7027,7 +7027,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C507">
@@ -7344,7 +7344,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C531">
@@ -7370,7 +7370,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C533">
@@ -7492,7 +7492,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C542">
@@ -7601,7 +7601,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C550">
@@ -7666,7 +7666,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C555">
@@ -7718,7 +7718,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C559">
@@ -7762,7 +7762,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C562">
@@ -7827,7 +7827,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C567">
@@ -7853,7 +7853,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C569">
@@ -7866,7 +7866,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C570">
@@ -7879,7 +7879,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C571">
@@ -7892,7 +7892,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C572">
@@ -7905,7 +7905,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C573">
@@ -7957,7 +7957,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C577">
@@ -7983,7 +7983,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C579">
@@ -7996,7 +7996,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C580">
@@ -8009,7 +8009,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C581">
@@ -8022,7 +8022,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C582">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C595">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C597">
@@ -8412,7 +8412,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C612">
@@ -8750,7 +8750,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C638">
@@ -9010,7 +9010,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C658">
@@ -9361,7 +9361,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C685">
@@ -9426,7 +9426,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C690">
@@ -9439,7 +9439,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C691">
@@ -9452,7 +9452,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C692">
@@ -9465,7 +9465,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C693">
@@ -9478,7 +9478,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C694">
@@ -9491,7 +9491,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C695">
@@ -9504,7 +9504,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C696">
@@ -9517,7 +9517,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C697">
@@ -9613,7 +9613,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C704">
@@ -9756,7 +9756,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C715">
@@ -9769,7 +9769,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C716">
@@ -9873,7 +9873,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C724">
@@ -9899,7 +9899,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C726">
@@ -9912,7 +9912,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C727">
@@ -10081,7 +10081,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C740">
@@ -10107,7 +10107,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C742">
@@ -10185,7 +10185,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C748">
@@ -10198,7 +10198,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C749">
@@ -10224,7 +10224,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C751">
@@ -10276,7 +10276,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C755">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C767">
@@ -10463,7 +10463,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C769">
@@ -10502,7 +10502,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C772">
@@ -10515,7 +10515,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C773">
@@ -10554,7 +10554,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C776">
@@ -10593,7 +10593,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C779">
@@ -10759,7 +10759,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C791">
@@ -10876,7 +10876,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C800">
@@ -10941,7 +10941,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C805">
@@ -11019,7 +11019,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C811">
@@ -11097,7 +11097,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C817">
@@ -11123,7 +11123,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C819">
@@ -11136,7 +11136,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C820">
@@ -11149,7 +11149,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C821">
@@ -11432,7 +11432,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C842">
@@ -11988,7 +11988,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C884">
@@ -12071,7 +12071,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C890">
@@ -12149,7 +12149,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C896">
@@ -12201,7 +12201,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C900">
@@ -12375,7 +12375,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C913">
@@ -12505,7 +12505,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C923">
@@ -12531,7 +12531,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C925">
@@ -12687,7 +12687,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C937">
@@ -12700,7 +12700,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C938">
@@ -12882,7 +12882,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C952">
@@ -12895,7 +12895,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C953">
@@ -12934,7 +12934,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C956">
@@ -12947,7 +12947,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C957">
@@ -13064,7 +13064,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C966">
@@ -13116,7 +13116,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C970">
@@ -13168,7 +13168,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C974">
@@ -13194,7 +13194,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C976">
@@ -13233,7 +13233,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C979">
@@ -13337,7 +13337,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C987">
@@ -13350,7 +13350,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C988">
@@ -13389,7 +13389,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C991">
@@ -13454,7 +13454,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C996">
@@ -13493,7 +13493,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C999">
@@ -13844,7 +13844,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1026">
@@ -14049,7 +14049,7 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1041">
@@ -14205,7 +14205,7 @@
     <row r="1053">
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1053">
@@ -14218,7 +14218,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1054">
@@ -14356,41 +14356,6 @@
       </c>
       <c r="D1064">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1066">
-      <c r="A1066" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1067">
-      <c r="A1067" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1068">
-      <c r="A1068" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1069">
-      <c r="A1069" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1070">
-      <c r="A1070" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
